--- a/PCB/ALM.xlsx
+++ b/PCB/ALM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://qfqy-my.sharepoint.com/personal/lbdlmos_a1_b4_cm/Documents/其它/PCB/ALM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LBDLMOS\Documents\Project\C005-Smart-alarm-clock\PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B453197-51D7-42A8-8A24-F901A63BD47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0760B16E-AC5D-4520-8F49-B3044E78CF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="7360" xr2:uid="{B8A34FFB-5DCB-44FC-9119-B0E30C74B531}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="15375" windowHeight="7875" xr2:uid="{6D473307-B167-4930-8440-B07D86007BC1}"/>
   </bookViews>
   <sheets>
     <sheet name="ALM" sheetId="1" r:id="rId1"/>
@@ -297,25 +297,25 @@
     <t>LED-SMD</t>
   </si>
   <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>贴片电阻</t>
+  </si>
+  <si>
+    <t>R1, R2, R6</t>
+  </si>
+  <si>
+    <t>R 0603_L</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
     <t>10K</t>
   </si>
   <si>
-    <t>贴片电阻</t>
-  </si>
-  <si>
-    <t>R1, R7</t>
-  </si>
-  <si>
-    <t>R 0603_L</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>1K</t>
-  </si>
-  <si>
-    <t>R2, R3, R6</t>
+    <t>R3, R7, R8, R9</t>
   </si>
   <si>
     <t>3.3K</t>
@@ -333,7 +333,7 @@
     <t>2.2K</t>
   </si>
   <si>
-    <t>R8, R9, R10</t>
+    <t>R10, R11, R12</t>
   </si>
   <si>
     <t>单联电位器</t>
@@ -816,17 +816,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316B1B9C-BF21-483B-A86C-94C0EB584D1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECF7852-2E29-4A92-BD18-8D1B9D965DB2}">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="17.33203125" customWidth="1"/>
+    <col min="1" max="6" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -846,7 +846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -866,7 +866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -886,7 +886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -906,7 +906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -926,7 +926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -946,7 +946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -966,7 +966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -986,7 +986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>44</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>48</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>52</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>56</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>61</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>66</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>71</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>76</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>81</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>86</v>
       </c>
@@ -1283,10 +1283,10 @@
         <v>90</v>
       </c>
       <c r="F23" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>91</v>
       </c>
@@ -1303,10 +1303,10 @@
         <v>90</v>
       </c>
       <c r="F24" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>93</v>
       </c>
@@ -1326,9 +1326,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>87</v>
@@ -1346,7 +1346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>97</v>
       </c>
@@ -1366,9 +1366,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>99</v>
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>103</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>105</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>110</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>114</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>118</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>120</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>124</v>
       </c>
